--- a/academias/Humanidades - Estadisticos 20242.xlsx
+++ b/academias/Humanidades - Estadisticos 20242.xlsx
@@ -1124,25 +1124,25 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1159,25 +1159,25 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1194,25 +1194,25 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1229,25 +1229,25 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1261,25 +1261,25 @@
         <v>127</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="F6">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J6">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1296,25 +1296,25 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1328,25 +1328,25 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1363,25 +1363,25 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>3.6</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="J9">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1398,25 +1398,25 @@
         <v>31</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>19.4</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="J10">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1430,25 +1430,25 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F11">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>11.9</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J11">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1465,25 +1465,25 @@
         <v>41</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>2.4</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J12">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1500,25 +1500,25 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>97.2</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>2.8</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1535,25 +1535,25 @@
         <v>17</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1570,25 +1570,25 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J15">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1602,25 +1602,25 @@
         <v>118</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="F16">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>1.7</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J16">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -1631,25 +1631,25 @@
         <v>324</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="F17">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>100</v>
+        <v>4.9</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J17">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1755,19 +1755,19 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>92.3</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1857,19 +1857,19 @@
         <v>127</v>
       </c>
       <c r="E6">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>97.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H7" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1924,19 +1924,19 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H8" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>19.4</v>
       </c>
       <c r="I10" s="2">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>11.9</v>
       </c>
       <c r="I11" s="2">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>2.4</v>
       </c>
       <c r="I12" s="2">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>2.8</v>
       </c>
       <c r="I13" s="2">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="H15" s="1">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2198,19 +2198,19 @@
         <v>118</v>
       </c>
       <c r="E16">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>97.5</v>
+        <v>98.3</v>
       </c>
       <c r="H16" s="1">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="I16" s="2">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2227,19 +2227,19 @@
         <v>324</v>
       </c>
       <c r="E17">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="I17" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="J17">
         <v>0</v>
